--- a/Finflux Automation Excels/Client/4964-BulkJLGLOANon01JAN201-DISBLOAN-OnlyForClient1-2ndClient.xlsx
+++ b/Finflux Automation Excels/Client/4964-BulkJLGLOANon01JAN201-DISBLOAN-OnlyForClient1-2ndClient.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>305.63</v>
+        <v>301.72000000000003</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>305.63</v>
+        <v>301.72000000000003</v>
       </c>
       <c r="F3" s="5">
         <v>161.61000000000001</v>
@@ -677,7 +677,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,21 +1126,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7">
-        <v>42171</v>
+        <v>42157</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>827.22</v>
+        <v>842.84</v>
       </c>
       <c r="G11" s="6">
-        <v>2567.58</v>
+        <v>2551.96</v>
       </c>
       <c r="H11" s="5">
-        <v>31.25</v>
+        <v>15.63</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7">
         <v>42171</v>
@@ -1179,13 +1179,13 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>858.47</v>
+        <v>846.72</v>
       </c>
       <c r="G12" s="6">
-        <v>1709.11</v>
+        <v>1705.24</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1224,13 +1224,13 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>850.6</v>
+        <v>850.62</v>
       </c>
       <c r="G13" s="5">
-        <v>858.51</v>
+        <v>854.62</v>
       </c>
       <c r="H13" s="5">
-        <v>7.87</v>
+        <v>7.85</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1269,13 +1269,13 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>858.51</v>
+        <v>854.62</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>862.46</v>
+        <v>858.55</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5">
-        <v>862.46</v>
+        <v>858.55</v>
       </c>
     </row>
   </sheetData>
